--- a/locations/periplusnov18.xlsx
+++ b/locations/periplusnov18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priya/Desktop/dh_final/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priya/Desktop/periplus_website/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E75E7F-4442-CB4D-9C48-D3650A30E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88710EA2-BFAC-4A49-9669-1B6AA1878EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4949,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/locations/periplusnov18.xlsx
+++ b/locations/periplusnov18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priya/Desktop/periplus_website/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88710EA2-BFAC-4A49-9669-1B6AA1878EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986DE59-01DD-0D45-B7D0-6B191475A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sites" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="1344">
   <si>
     <t>id</t>
   </si>
@@ -3209,12 +3209,6 @@
   </si>
   <si>
     <t>EncIs 6, 919</t>
-  </si>
-  <si>
-    <t>“12 - Potts 1997b.Pdf.” n.d.
-Gregoratti, Leonardo. n.d. “2 (2011) STUDIA CLASSICA ET ORIENTALIA,” 21.
-“Moon et al 2016.Pdf.” n.d.
-“Moon et al 2019.Pdf.” n.d.</t>
   </si>
   <si>
     <r>
@@ -4202,6 +4196,219 @@
   </si>
   <si>
     <t>THMXFKUE</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/786069</t>
+  </si>
+  <si>
+    <t>pleiades_link</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/785986</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/805630</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39409</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39271</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39404</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39363</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39303</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39281</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39304</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39375</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39389</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39387</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/40030</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39293</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39403</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39410</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/40222</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39414</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/814698</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39345</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39390</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39423</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39279</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39269</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39355</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39436</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39338</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/40228</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39296</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/39441</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/29743</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/29620</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/912807</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/912872</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/932474</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/59881</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/59734</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/59933</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49880</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49889</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50032</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/59737</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/59972</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50192</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50294</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50282</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50023</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50261</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50116</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50196</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49929</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50308</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50264</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49841</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50015</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50160</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50312</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50146</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50165</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49890</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49892</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50066</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50064</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49871</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/49939</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50221</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50278</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50298</t>
+  </si>
+  <si>
+    <t>https://pleiades.stoa.org/places/50123</t>
   </si>
 </sst>
 </file>
@@ -4285,18 +4492,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4308,7 +4509,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4442,6 +4643,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4487,15 +4689,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="133"/>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4628,6 +4828,7 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -4947,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4962,15 +5163,15 @@
     <col min="5" max="5" width="23.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20" style="3" customWidth="1"/>
-    <col min="13" max="13" width="49.1640625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="10" width="21.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20" style="3" customWidth="1"/>
+    <col min="14" max="14" width="49.1640625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4987,33 +5188,36 @@
         <v>907</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="3">
@@ -5025,30 +5229,33 @@
       <c r="E2" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G2" s="18">
         <v>786069</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1022</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>286</v>
       </c>
@@ -5065,28 +5272,31 @@
         <v>908</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G3" s="3">
         <v>785986</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>1022</v>
-      </c>
       <c r="K3" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>287</v>
       </c>
@@ -5103,28 +5313,31 @@
         <v>908</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G4" s="3">
         <v>805630</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>288</v>
       </c>
@@ -5141,29 +5354,32 @@
         <v>908</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G5" s="3">
         <v>39409</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K5" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>284</v>
       </c>
@@ -5180,28 +5396,31 @@
         <v>908</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G6" s="3">
         <v>39271</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="K6" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
@@ -5218,28 +5437,31 @@
         <v>908</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G7" s="3">
         <v>39404</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="K7" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>290</v>
       </c>
@@ -5253,25 +5475,25 @@
         <v>15.462899999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>1027</v>
-      </c>
       <c r="K8" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>291</v>
       </c>
@@ -5288,28 +5510,31 @@
         <v>908</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G9" s="3">
         <v>39363</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K9" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>292</v>
       </c>
@@ -5326,28 +5551,31 @@
         <v>908</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G10" s="3">
         <v>39303</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K10" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>294</v>
       </c>
@@ -5364,28 +5592,31 @@
         <v>908</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G11" s="3">
         <v>39281</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K11" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>295</v>
       </c>
@@ -5402,28 +5633,31 @@
         <v>908</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G12" s="3">
         <v>39304</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K12" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>296</v>
       </c>
@@ -5440,28 +5674,31 @@
         <v>908</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G13" s="3">
         <v>39375</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K13" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>297</v>
       </c>
@@ -5478,28 +5715,31 @@
         <v>908</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G14" s="3">
         <v>39389</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K14" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
@@ -5516,28 +5756,31 @@
         <v>908</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G15" s="3">
         <v>39387</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K15" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>299</v>
       </c>
@@ -5551,25 +5794,25 @@
         <v>11.940889</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H16" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K16" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>300</v>
       </c>
@@ -5583,31 +5826,34 @@
         <v>11.966666999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G17" s="3">
         <v>40030</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K17" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>301</v>
       </c>
@@ -5624,28 +5870,31 @@
         <v>908</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G18" s="3">
         <v>39293</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K18" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>302</v>
       </c>
@@ -5659,25 +5908,25 @@
         <v>11.750833</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>1026</v>
-      </c>
       <c r="K19" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>303</v>
       </c>
@@ -5694,28 +5943,31 @@
         <v>908</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G20" s="3">
         <v>39403</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K20" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>304</v>
       </c>
@@ -5732,28 +5984,31 @@
         <v>908</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G21" s="3">
         <v>39410</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K21" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>305</v>
       </c>
@@ -5770,28 +6025,31 @@
         <v>908</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G22" s="3">
         <v>40222</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K22" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>306</v>
       </c>
@@ -5808,28 +6066,31 @@
         <v>908</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G23" s="3">
         <v>39414</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K23" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>307</v>
       </c>
@@ -5843,28 +6104,31 @@
         <v>24.088263999999999</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G24" s="3">
         <v>814698</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="K24" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>308</v>
       </c>
@@ -5881,28 +6145,31 @@
         <v>908</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G25" s="3">
         <v>39345</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="19" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K25" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>309</v>
       </c>
@@ -5919,28 +6186,31 @@
         <v>908</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G26" s="3">
         <v>39390</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="K26" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>310</v>
       </c>
@@ -5954,25 +6224,25 @@
         <v>13.968610999999999</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H27" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K27" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>311</v>
       </c>
@@ -5989,28 +6259,31 @@
         <v>908</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G28" s="3">
         <v>39423</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K28" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>312</v>
       </c>
@@ -6024,25 +6297,25 @@
         <v>12.66</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K29" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>313</v>
       </c>
@@ -6059,28 +6332,31 @@
         <v>908</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G30" s="3">
         <v>39279</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K30" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>314</v>
       </c>
@@ -6097,29 +6373,32 @@
         <v>908</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G31" s="3">
         <v>39269</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="K31" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>315</v>
       </c>
@@ -6133,31 +6412,34 @@
         <v>14.0253</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G32" s="3">
         <v>39355</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K32" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>316</v>
       </c>
@@ -6171,25 +6453,25 @@
         <v>13.932499999999999</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K33" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>317</v>
       </c>
@@ -6206,28 +6488,31 @@
         <v>908</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G34" s="3">
         <v>39436</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K34" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>318</v>
       </c>
@@ -6241,25 +6526,25 @@
         <v>15.3689</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H35" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K35" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>319</v>
       </c>
@@ -6273,25 +6558,25 @@
         <v>15.635278</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H36" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="K36" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>320</v>
       </c>
@@ -6308,28 +6593,31 @@
         <v>908</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G37" s="3">
         <v>39338</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K37" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>321</v>
       </c>
@@ -6346,28 +6634,31 @@
         <v>909</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G38" s="3">
         <v>40228</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="19" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>1022</v>
-      </c>
       <c r="K38" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>322</v>
       </c>
@@ -6384,28 +6675,31 @@
         <v>910</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G39" s="3">
         <v>39296</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K39" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>323</v>
       </c>
@@ -6422,28 +6716,31 @@
         <v>908</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G40" s="3">
         <v>39441</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K40" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>324</v>
       </c>
@@ -6460,28 +6757,31 @@
         <v>908</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G41" s="3">
         <v>29743</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K41" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>326</v>
       </c>
@@ -6498,28 +6798,31 @@
         <v>908</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G42" s="3">
         <v>29620</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K42" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>327</v>
       </c>
@@ -6536,29 +6839,32 @@
         <v>908</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G43" s="3">
         <v>912807</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="K43" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>328</v>
       </c>
@@ -6575,28 +6881,31 @@
         <v>908</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G44" s="3">
         <v>912872</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K44" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>329</v>
       </c>
@@ -6613,29 +6922,32 @@
         <v>908</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G45" s="3">
         <v>932474</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K45" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>498</v>
       </c>
@@ -6652,25 +6964,28 @@
         <v>908</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G46" s="3">
         <v>59881</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="K46" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>502</v>
       </c>
@@ -6687,29 +7002,32 @@
         <v>908</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G47" s="3">
         <v>59734</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K47" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>500</v>
       </c>
@@ -6726,28 +7044,31 @@
         <v>908</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G48" s="3">
         <v>59933</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>1048</v>
-      </c>
       <c r="K48" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>537</v>
       </c>
@@ -6764,28 +7085,31 @@
         <v>908</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G49" s="3">
         <v>49880</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K49" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>540</v>
       </c>
@@ -6802,28 +7126,31 @@
         <v>910</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G50" s="3">
         <v>49889</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K50" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>543</v>
       </c>
@@ -6840,28 +7167,31 @@
         <v>908</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G51" s="3">
         <v>50032</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>1030</v>
-      </c>
       <c r="K51" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>635</v>
       </c>
@@ -6878,28 +7208,31 @@
         <v>908</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G52" s="3">
         <v>59737</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K52" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>592</v>
       </c>
@@ -6916,28 +7249,31 @@
         <v>908</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G53" s="3">
         <v>59972</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>591</v>
       </c>
@@ -6954,28 +7290,31 @@
         <v>908</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G54" s="3">
         <v>50192</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="19" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K54" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>611</v>
       </c>
@@ -6992,28 +7331,31 @@
         <v>908</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G55" s="3">
         <v>50294</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K55" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>616</v>
       </c>
@@ -7023,23 +7365,23 @@
       <c r="E56" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K56" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>617</v>
       </c>
@@ -7056,28 +7398,31 @@
         <v>908</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G57" s="3">
         <v>50282</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K57" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>619</v>
       </c>
@@ -7094,29 +7439,32 @@
         <v>908</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G58" s="3">
         <v>50023</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K58" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>622</v>
       </c>
@@ -7133,28 +7481,31 @@
         <v>908</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G59" s="3">
         <v>50261</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K59" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>626</v>
       </c>
@@ -7171,28 +7522,31 @@
         <v>908</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G60" s="3">
         <v>50116</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K60" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>628</v>
       </c>
@@ -7209,28 +7563,31 @@
         <v>908</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G61" s="3">
         <v>50196</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K61" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>631</v>
       </c>
@@ -7244,25 +7601,25 @@
         <v>17.29</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H62" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K62" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>634</v>
       </c>
@@ -7279,28 +7636,31 @@
         <v>908</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G63" s="3">
         <v>49929</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K63" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>638</v>
       </c>
@@ -7317,28 +7677,31 @@
         <v>908</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G64" s="3">
         <v>50308</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K64" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>641</v>
       </c>
@@ -7352,25 +7715,25 @@
         <v>16.066700000000001</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H65" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K65" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>666</v>
       </c>
@@ -7387,28 +7750,31 @@
         <v>908</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G66" s="3">
         <v>50264</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K66" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>645</v>
       </c>
@@ -7425,28 +7791,31 @@
         <v>908</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G67" s="3">
         <v>49841</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K67" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>647</v>
       </c>
@@ -7463,28 +7832,31 @@
         <v>908</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G68" s="3">
         <v>50015</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K68" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>650</v>
       </c>
@@ -7498,25 +7870,25 @@
         <v>14.016500000000001</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H69" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K69" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>654</v>
       </c>
@@ -7533,28 +7905,31 @@
         <v>908</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G70" s="3">
         <v>50160</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K70" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>655</v>
       </c>
@@ -7571,28 +7946,31 @@
         <v>908</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G71" s="3">
         <v>50312</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K71" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>668</v>
       </c>
@@ -7609,28 +7987,31 @@
         <v>908</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G72" s="3">
         <v>50146</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K72" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>658</v>
       </c>
@@ -7647,28 +8028,31 @@
         <v>908</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G73" s="3">
         <v>50165</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K73" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="M73" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>661</v>
       </c>
@@ -7685,28 +8069,31 @@
         <v>908</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G74" s="3">
         <v>49890</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>1030</v>
-      </c>
       <c r="K74" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>903</v>
       </c>
@@ -7723,28 +8110,31 @@
         <v>908</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G75" s="3">
         <v>49892</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="K75" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>739</v>
       </c>
@@ -7761,28 +8151,31 @@
         <v>908</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G76" s="3">
         <v>50066</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="19" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="K76" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>692</v>
       </c>
@@ -7799,28 +8192,31 @@
         <v>908</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G77" s="3">
         <v>50064</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K77" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>699</v>
       </c>
@@ -7837,28 +8233,31 @@
         <v>908</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G78" s="3">
         <v>49871</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K78" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="M78" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>702</v>
       </c>
@@ -7875,28 +8274,31 @@
         <v>908</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G79" s="3">
         <v>49939</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K79" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="M79" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>705</v>
       </c>
@@ -7913,28 +8315,31 @@
         <v>908</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G80" s="3">
         <v>50221</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K80" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="M80" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>708</v>
       </c>
@@ -7951,28 +8356,31 @@
         <v>908</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G81" s="3">
         <v>50278</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K81" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="M81" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>711</v>
       </c>
@@ -7989,28 +8397,31 @@
         <v>908</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G82" s="3">
         <v>50298</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K82" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>714</v>
       </c>
@@ -8027,28 +8438,31 @@
         <v>908</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G83" s="3">
         <v>50123</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K83" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>719</v>
       </c>
@@ -8062,25 +8476,25 @@
         <v>22.697778</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H84" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>1024</v>
-      </c>
       <c r="K84" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L84" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>723</v>
       </c>
@@ -8090,23 +8504,23 @@
       <c r="E85" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="K85" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="M85" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>730</v>
       </c>
@@ -8116,31 +8530,103 @@
       <c r="E86" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="K86" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>729</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{41C00A36-0297-9745-BFE1-B69DB88CAF06}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{2F1F2CBF-5BC8-D441-B559-5F42C7F27C2D}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{0F167763-007F-0B48-BC2A-20238CDAF7FB}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{4A1A51D6-12F5-3140-8BDA-2FAC0D0F7FAF}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{8430B309-914A-2444-BA59-4A6B17CC1C25}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{A204BB6A-7D3C-8343-9386-2423C12078BC}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{6A3858DF-B8DB-A144-AEAD-4178340F4028}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{CDB0D0BB-FA1F-3F47-B221-BF6FB79C237B}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{3EE1A2BE-4409-FF4E-8C90-5C270AE56A8B}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{55A547B2-4419-5845-BBE0-C1DC4CA0048E}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{4EC36EEE-129A-B347-9929-A7483897F543}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{3760A448-1D36-544A-9905-2A80CEA2AC34}"/>
+    <hyperlink ref="H15" r:id="rId13" xr:uid="{A804A174-9DAE-9C4F-8B62-617C3612A08D}"/>
+    <hyperlink ref="H17" r:id="rId14" xr:uid="{4A27CBF1-B09A-8348-AE42-3552C3E7024D}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{CDB2D543-2A8A-5449-82BD-AB90ED136062}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{9A2D427E-5EF2-7F4A-BF7D-8DF7655BC34A}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{94F0B48E-0A8E-2244-B5CC-79E978E9A438}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{A13A193D-6222-234F-9EE2-956545F5DB26}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{07544D1A-9738-1444-B9AB-E188F027149D}"/>
+    <hyperlink ref="H24" r:id="rId20" xr:uid="{06F3F090-1818-CF46-A326-2DC391B430E6}"/>
+    <hyperlink ref="H25" r:id="rId21" xr:uid="{7FB0A879-7E51-394D-91BA-1B64CB7074EA}"/>
+    <hyperlink ref="H26" r:id="rId22" xr:uid="{BCA81B53-9FF0-E04D-B26C-688EDA8A235C}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{C93677F5-5B54-3A4E-9ED4-D6FC968443A9}"/>
+    <hyperlink ref="H30" r:id="rId24" xr:uid="{052C4A4A-2CE5-1142-B4BB-0A815DB22222}"/>
+    <hyperlink ref="H31" r:id="rId25" xr:uid="{6D1A35EE-A326-3B48-AACE-6ECE0915482A}"/>
+    <hyperlink ref="H32" r:id="rId26" xr:uid="{DC0D6FB3-1050-164A-9C96-23BA5EFF3BB3}"/>
+    <hyperlink ref="H34" r:id="rId27" xr:uid="{9F1159F6-607A-154B-ADE1-AFC3FE79C0F4}"/>
+    <hyperlink ref="H37" r:id="rId28" xr:uid="{7E17FCD5-954B-D64E-A9AC-F44B3B09D9EA}"/>
+    <hyperlink ref="H38" r:id="rId29" xr:uid="{85660A3D-7C60-F646-BB21-ADB2CA770288}"/>
+    <hyperlink ref="H39" r:id="rId30" xr:uid="{E3016849-0ED7-9443-B29E-C70D8DC7AB8A}"/>
+    <hyperlink ref="H40" r:id="rId31" xr:uid="{B2B9BBAE-A8BE-CA49-9711-68B2AC0515D3}"/>
+    <hyperlink ref="H41" r:id="rId32" xr:uid="{02C49A7E-7DD6-714C-BB14-9C3B6CCCAB82}"/>
+    <hyperlink ref="H42" r:id="rId33" xr:uid="{BA2D1349-D2F0-864E-BB56-E084C5EDDB45}"/>
+    <hyperlink ref="H43" r:id="rId34" xr:uid="{AB2BA89A-FDEC-434A-BE33-BAC082BC8DC1}"/>
+    <hyperlink ref="H44" r:id="rId35" xr:uid="{8DE4B00B-D9C6-794D-882F-975DCB040F85}"/>
+    <hyperlink ref="H45" r:id="rId36" xr:uid="{B78C1B3C-BC28-D846-9BFA-E29D61021A9B}"/>
+    <hyperlink ref="H46" r:id="rId37" xr:uid="{210DB2D9-08AA-2D42-9AC2-85B1D9FFF83D}"/>
+    <hyperlink ref="H47" r:id="rId38" xr:uid="{96934AC0-050E-BC47-9BAF-0C1C11201E1F}"/>
+    <hyperlink ref="H48" r:id="rId39" xr:uid="{8F8E7050-E08E-C24F-B01A-FE98C7C042D8}"/>
+    <hyperlink ref="H49" r:id="rId40" xr:uid="{45D5D94B-7619-6B4F-8561-6E3D658A7BA6}"/>
+    <hyperlink ref="H50" r:id="rId41" xr:uid="{49054681-0972-9F41-84AD-427803D736D7}"/>
+    <hyperlink ref="H51" r:id="rId42" xr:uid="{96BDDEBC-D864-D54B-B48C-81B4342759D0}"/>
+    <hyperlink ref="H52" r:id="rId43" xr:uid="{379F6875-0B31-1A46-864D-C5F8F14AB6C9}"/>
+    <hyperlink ref="H53" r:id="rId44" xr:uid="{DE356E5E-B258-0F49-9CFB-EC8C3BDA79AE}"/>
+    <hyperlink ref="H54" r:id="rId45" xr:uid="{E492495B-4E17-5C49-853E-49C6756B042D}"/>
+    <hyperlink ref="H55" r:id="rId46" xr:uid="{8300AE20-A2CA-2944-9C46-00E3F013D4D7}"/>
+    <hyperlink ref="H57" r:id="rId47" xr:uid="{4105F690-2586-7042-9115-F433BA44E36A}"/>
+    <hyperlink ref="H58" r:id="rId48" xr:uid="{57525E43-41AD-AE4B-B9A4-2907CE1C5A22}"/>
+    <hyperlink ref="H59" r:id="rId49" xr:uid="{2A4ACDDC-454B-364B-AAD1-39CC0A4005E1}"/>
+    <hyperlink ref="H60" r:id="rId50" xr:uid="{92F244DD-031D-8843-9924-AB6D32829594}"/>
+    <hyperlink ref="H61" r:id="rId51" xr:uid="{455E5F03-65C4-6440-9752-1FF73CD75965}"/>
+    <hyperlink ref="H63" r:id="rId52" xr:uid="{B81B2BB7-EB88-0045-9906-E089B479C035}"/>
+    <hyperlink ref="H64" r:id="rId53" xr:uid="{4DB54510-F10E-7542-803E-92C1C94EC624}"/>
+    <hyperlink ref="H66" r:id="rId54" xr:uid="{79CF192F-E9EC-4945-86FE-4FF90F7F5871}"/>
+    <hyperlink ref="H67" r:id="rId55" xr:uid="{02A55B61-EBF9-4149-8A88-21F2CEC4523C}"/>
+    <hyperlink ref="H68" r:id="rId56" xr:uid="{B414ED10-7BF6-A647-B6CE-E652486B9E89}"/>
+    <hyperlink ref="H70" r:id="rId57" xr:uid="{7D20ABD9-0664-FE4D-809A-18A2B2657325}"/>
+    <hyperlink ref="H71" r:id="rId58" xr:uid="{0B7D1961-C8A3-E84A-A032-5AFF30458C00}"/>
+    <hyperlink ref="H72" r:id="rId59" xr:uid="{0B667AAB-0025-E747-AA5C-76CEE5F80950}"/>
+    <hyperlink ref="H73" r:id="rId60" xr:uid="{873D6BD0-08C5-7641-9F36-D7299773E7D5}"/>
+    <hyperlink ref="H74" r:id="rId61" xr:uid="{FA66A0A4-9B6A-E640-934C-C931B7535236}"/>
+    <hyperlink ref="H75" r:id="rId62" xr:uid="{0B399BDA-DAE0-E24D-8686-850183D8CA87}"/>
+    <hyperlink ref="H76" r:id="rId63" xr:uid="{AF9BEFB2-F961-5241-8983-D137C3FF3FB5}"/>
+    <hyperlink ref="H77" r:id="rId64" xr:uid="{52BBD549-5AF7-F249-84EB-828B2A141014}"/>
+    <hyperlink ref="H78" r:id="rId65" xr:uid="{4C13B81E-3969-EA47-9E61-965ECDC8AFA4}"/>
+    <hyperlink ref="H79" r:id="rId66" xr:uid="{7D7B9445-19C1-0E42-BE06-4CC3AE82E072}"/>
+    <hyperlink ref="H80" r:id="rId67" xr:uid="{1278FAFE-D4EA-E344-BE3C-280907F5E300}"/>
+    <hyperlink ref="H81" r:id="rId68" xr:uid="{281D45BF-82F2-774C-80B6-7CB0D3A9D997}"/>
+    <hyperlink ref="H82" r:id="rId69" xr:uid="{F6E62E60-CC62-A94A-AFF3-B11A322DCA00}"/>
+    <hyperlink ref="H83" r:id="rId70" xr:uid="{FC90846E-712C-AF43-ADA6-0367B59F8DD4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId71"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8159,7 +8645,7 @@
         <v>978</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>893</v>
@@ -8167,7 +8653,7 @@
     </row>
     <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>979</v>
@@ -8178,10 +8664,10 @@
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D3" t="s">
         <v>286</v>
@@ -8189,13 +8675,13 @@
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D4" t="s">
         <v>286</v>
@@ -8203,13 +8689,13 @@
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D5" t="s">
         <v>286</v>
@@ -8217,13 +8703,13 @@
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D6" t="s">
         <v>286</v>
@@ -8231,13 +8717,13 @@
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D7" t="s">
         <v>286</v>
@@ -8245,13 +8731,13 @@
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D8" t="s">
         <v>286</v>
@@ -8259,13 +8745,13 @@
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C9" t="s">
         <v>1265</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1266</v>
       </c>
       <c r="D9" t="s">
         <v>286</v>
@@ -8273,10 +8759,10 @@
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D10" t="s">
         <v>286</v>
@@ -8296,10 +8782,10 @@
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D13" t="s">
         <v>284</v>
@@ -8307,10 +8793,10 @@
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D14" t="s">
         <v>284</v>
@@ -8318,10 +8804,10 @@
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D15" t="s">
         <v>284</v>
@@ -8329,10 +8815,10 @@
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D16" t="s">
         <v>284</v>
@@ -8340,13 +8826,13 @@
     </row>
     <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C17" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D17" t="s">
         <v>284</v>
@@ -8354,10 +8840,10 @@
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D18" t="s">
         <v>284</v>
@@ -8394,7 +8880,7 @@
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>980</v>
@@ -8447,10 +8933,10 @@
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D32" t="s">
         <v>303</v>
@@ -8458,10 +8944,10 @@
     </row>
     <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D33" t="s">
         <v>303</v>
@@ -8483,10 +8969,10 @@
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D36" t="s">
         <v>306</v>
@@ -8494,13 +8980,13 @@
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D37" t="s">
         <v>306</v>
@@ -8508,7 +8994,7 @@
     </row>
     <row r="38" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>982</v>
@@ -8525,7 +9011,7 @@
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>983</v>
@@ -8542,7 +9028,7 @@
     </row>
     <row r="42" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>984</v>
@@ -8559,7 +9045,7 @@
     </row>
     <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>985</v>
@@ -8570,7 +9056,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B45" t="s">
         <v>986</v>
@@ -8581,13 +9067,13 @@
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C46" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D46" t="s">
         <v>315</v>
@@ -8595,13 +9081,13 @@
     </row>
     <row r="47" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C47" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D47" t="s">
         <v>315</v>
@@ -8609,13 +9095,13 @@
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C48" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D48" t="s">
         <v>315</v>
@@ -8623,13 +9109,13 @@
     </row>
     <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C49" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D49" t="s">
         <v>315</v>
@@ -8661,10 +9147,10 @@
     </row>
     <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D54" t="s">
         <v>320</v>
@@ -8672,10 +9158,10 @@
     </row>
     <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D55" t="s">
         <v>320</v>
@@ -8683,7 +9169,7 @@
     </row>
     <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>987</v>
@@ -8694,7 +9180,7 @@
     </row>
     <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>988</v>
@@ -8705,7 +9191,7 @@
     </row>
     <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>989</v>
@@ -8734,220 +9220,223 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="B62" s="18" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B62" t="s">
         <v>991</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1125</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>992</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B64" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B64" t="s">
         <v>993</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1126</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>994</v>
       </c>
       <c r="D65" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>995</v>
       </c>
       <c r="D66" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="6"/>
+      <c r="D67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="D67" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="6"/>
       <c r="D68" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>997</v>
-      </c>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
       <c r="D69" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="D70" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="D71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="D72" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="D73" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="6"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>997</v>
+      </c>
       <c r="D74" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B75" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>998</v>
       </c>
       <c r="D75" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="B76" s="6"/>
+      <c r="D76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="D76" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
       <c r="D77" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>1127</v>
+      <c r="A78" t="s">
+        <v>1126</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>1000</v>
       </c>
       <c r="D78" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>1001</v>
-      </c>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
       <c r="D79" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="D80" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="D81" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="D82" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="D83" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
       <c r="D84" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
       <c r="D85" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
       <c r="D86" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="6"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1001</v>
+      </c>
       <c r="D87" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1002</v>
+        <v>1128</v>
       </c>
       <c r="D88" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -8955,10 +9444,10 @@
         <v>1140</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="D89" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -8972,34 +9461,37 @@
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="D91" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="D92" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1143</v>
+        <v>1130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1242</v>
       </c>
       <c r="D93" t="s">
         <v>668</v>
@@ -9007,12 +9499,12 @@
     </row>
     <row r="94" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>1243</v>
       </c>
       <c r="D94" t="s">
@@ -9026,27 +9518,27 @@
       <c r="B95" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="C95" t="s">
-        <v>1244</v>
-      </c>
       <c r="D95" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1146</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>1133</v>
       </c>
+      <c r="C96" t="s">
+        <v>1244</v>
+      </c>
       <c r="D96" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>1134</v>
@@ -9058,11 +9550,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1150</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>1135</v>
       </c>
       <c r="C98" t="s">
@@ -9072,7 +9564,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1151</v>
       </c>
@@ -9080,89 +9572,86 @@
         <v>1136</v>
       </c>
       <c r="C99" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="D99" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1242</v>
+        <v>1126</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>999</v>
       </c>
       <c r="D100" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>1000</v>
-      </c>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="6"/>
       <c r="D101" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
       <c r="D102" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1002</v>
+      </c>
       <c r="D103" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>1003</v>
-      </c>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="6"/>
       <c r="D104" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="D105" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1247</v>
+      </c>
       <c r="D106" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>1154</v>
       </c>
       <c r="C107" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D107" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>1155</v>
       </c>
       <c r="C108" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D108" t="s">
         <v>702</v>
@@ -9170,18 +9659,18 @@
     </row>
     <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C109" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D109" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C110" t="s">
         <v>1251</v>
@@ -9190,15 +9679,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1163</v>
+      </c>
       <c r="B111" s="6" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C111" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D111" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -9206,16 +9698,16 @@
         <v>1164</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C112" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D112" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1165</v>
       </c>
@@ -9223,13 +9715,13 @@
         <v>1161</v>
       </c>
       <c r="C113" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D113" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1166</v>
       </c>
@@ -9237,21 +9729,21 @@
         <v>1162</v>
       </c>
       <c r="C114" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D114" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1167</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="C115" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D115" t="s">
         <v>705</v>
@@ -9259,38 +9751,38 @@
     </row>
     <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="C116" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="D116" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D117" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>1258</v>
       </c>
-      <c r="D117" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B118" s="6" t="s">
-        <v>1004</v>
-      </c>
       <c r="D118" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -9301,18 +9793,18 @@
         <v>1171</v>
       </c>
       <c r="C119" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D119" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1176</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C120" t="s">
         <v>1259</v>
@@ -9321,12 +9813,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1177</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C121" t="s">
         <v>1260</v>
@@ -9337,52 +9829,38 @@
     </row>
     <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1178</v>
+        <v>1126</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1261</v>
+        <v>999</v>
       </c>
       <c r="D122" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>1000</v>
-      </c>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="6"/>
       <c r="D123" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1258</v>
+      </c>
       <c r="D124" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1259</v>
-      </c>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="6"/>
       <c r="D125" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
-      <c r="D126" t="s">
         <v>730</v>
       </c>
     </row>
@@ -9532,7 +10010,7 @@
         <v>298</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -9540,7 +10018,7 @@
         <v>298</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9556,7 +10034,7 @@
         <v>300</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9564,7 +10042,7 @@
         <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -9603,7 +10081,7 @@
         <v>306</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9611,7 +10089,7 @@
         <v>306</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10035,7 +10513,7 @@
         <v>893</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
@@ -11233,10 +11711,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11244,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11252,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11265,7 +11743,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -11291,13 +11769,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1" t="s">
         <v>892</v>
       </c>
       <c r="C1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>255</v>
@@ -11305,117 +11783,117 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>945</v>
       </c>
       <c r="C2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>942</v>
       </c>
       <c r="C3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>944</v>
       </c>
       <c r="C6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" t="s">
         <v>1039</v>
       </c>
-      <c r="C8" t="s">
-        <v>1040</v>
-      </c>
       <c r="D8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>946</v>
@@ -11454,7 +11932,7 @@
         <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E1" t="s">
         <v>252</v>
@@ -20351,422 +20829,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA1977-88D4-5C4E-9285-2D1EDA85727A}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1008</v>
+        <v>1014</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>1184</v>
+      <c r="B2" s="17" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1185</v>
+      <c r="B3" s="17" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1186</v>
+      <c r="B4" s="17" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>1187</v>
+      <c r="B5" s="17" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1188</v>
+      <c r="B6" s="17" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>1189</v>
+      <c r="B7" s="17" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>1190</v>
+      <c r="B8" s="17" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>1191</v>
+      <c r="B9" s="17" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>1192</v>
+      <c r="B10" s="17" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>1193</v>
+      <c r="B11" s="17" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>1194</v>
+        <v>1048</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>1195</v>
+        <v>1049</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>1196</v>
+      <c r="B14" s="17" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>1197</v>
+      <c r="B15" s="17" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1198</v>
+      <c r="B16" s="17" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>1199</v>
+      <c r="B17" s="17" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>1200</v>
+        <v>1050</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>1201</v>
+      <c r="B19" s="17" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>1202</v>
+      <c r="B20" s="17" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>1203</v>
+        <v>1051</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>1204</v>
+      <c r="B22" s="17" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>1216</v>
+      <c r="B23" s="17" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>1215</v>
+      <c r="B24" s="17" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>1214</v>
+      <c r="B25" s="17" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>1217</v>
+      <c r="B26" s="17" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>1205</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>1207</v>
+      <c r="B28" s="17" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>1209</v>
+      <c r="B29" s="17" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>1208</v>
+      <c r="B30" s="17" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>1210</v>
+      <c r="B31" s="17" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>1218</v>
+      <c r="B32" s="17" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>1211</v>
+      <c r="B33" s="17" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>1219</v>
+        <v>1212</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1220</v>
+        <v>1052</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>1221</v>
+      <c r="B36" s="17" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>1222</v>
+      <c r="B37" s="17" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>1223</v>
+        <v>1053</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>1224</v>
+      <c r="B39" s="17" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>1226</v>
+      <c r="B40" s="17" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>1227</v>
+      <c r="B41" s="17" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>1228</v>
+      <c r="B42" s="17" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>1229</v>
+        <v>1224</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>1230</v>
+        <v>1054</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>1231</v>
+      <c r="B45" s="17" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>1232</v>
+      <c r="B46" s="17" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>1233</v>
+      <c r="B47" s="17" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>1234</v>
+      <c r="B48" s="17" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>1235</v>
+      <c r="B49" s="17" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>1236</v>
+      <c r="B50" s="17" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>1237</v>
+      <c r="B51" s="17" t="s">
+        <v>1236</v>
       </c>
     </row>
   </sheetData>
@@ -20814,7 +21292,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -20822,7 +21300,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -20945,7 +21423,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -20953,7 +21431,7 @@
         <v>308</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -21051,7 +21529,7 @@
         <v>328</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21059,7 +21537,7 @@
         <v>328</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -21072,7 +21550,7 @@
         <v>498</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21080,7 +21558,7 @@
         <v>498</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21088,7 +21566,7 @@
         <v>498</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -21146,7 +21624,7 @@
         <v>592</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21255,7 +21733,7 @@
         <v>654</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21279,7 +21757,7 @@
         <v>668</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21287,7 +21765,7 @@
         <v>668</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21303,7 +21781,7 @@
         <v>661</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21311,7 +21789,7 @@
         <v>661</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">

--- a/locations/periplusnov18.xlsx
+++ b/locations/periplusnov18.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priya/Desktop/periplus_website/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986DE59-01DD-0D45-B7D0-6B191475A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDD5D5-C976-9040-B92C-E967626539F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sites" sheetId="1" r:id="rId1"/>
     <sheet name="alternate_names" sheetId="19" r:id="rId2"/>
     <sheet name="identifications" sheetId="14" r:id="rId3"/>
-    <sheet name="identifications_source" sheetId="15" r:id="rId4"/>
-    <sheet name="place_types" sheetId="18" r:id="rId5"/>
-    <sheet name="products" sheetId="13" r:id="rId6"/>
-    <sheet name="sites_products" sheetId="11" r:id="rId7"/>
-    <sheet name="periplus_text" sheetId="20" r:id="rId8"/>
-    <sheet name="bibliography_ancient" sheetId="21" r:id="rId9"/>
-    <sheet name="bibliography_modern" sheetId="8" r:id="rId10"/>
+    <sheet name="products" sheetId="13" r:id="rId4"/>
+    <sheet name="sites_products" sheetId="11" r:id="rId5"/>
+    <sheet name="periplus_text" sheetId="20" r:id="rId6"/>
+    <sheet name="bibliography_ancient" sheetId="21" r:id="rId7"/>
+    <sheet name="bibliography_modern" sheetId="8" r:id="rId8"/>
+    <sheet name="zotero" sheetId="22" r:id="rId9"/>
+    <sheet name="place_types" sheetId="18" r:id="rId10"/>
     <sheet name="modes_of_acquisition" sheetId="7" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000"/>
@@ -43,6 +43,20 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{1BFD2D3D-D455-DC48-BADB-568B4D6D1DDE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Is this the region or a city? 
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -62,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="1411">
   <si>
     <t>id</t>
   </si>
@@ -3309,15 +3323,6 @@
     <t>modern_identification</t>
   </si>
   <si>
-    <t xml:space="preserve">identification_id </t>
-  </si>
-  <si>
-    <t>De Romanis 2010</t>
-  </si>
-  <si>
-    <t>Thomber 2008</t>
-  </si>
-  <si>
     <t>Mosyllon</t>
   </si>
   <si>
@@ -3345,33 +3350,6 @@
     <t>Burnt Islands</t>
   </si>
   <si>
-    <t>designated_harbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inland_market </t>
-  </si>
-  <si>
-    <t>port_of_trade</t>
-  </si>
-  <si>
-    <t>legally_limited_port_of_trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emergency_harbor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">former_harbor </t>
-  </si>
-  <si>
-    <t>unspecified</t>
-  </si>
-  <si>
-    <t>harbor</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
     <t>periplus_place_types</t>
   </si>
   <si>
@@ -3393,9 +3371,6 @@
     <t>Legally limited port of trade</t>
   </si>
   <si>
-    <t>lawful_port_of_trade</t>
-  </si>
-  <si>
     <t>Lawful port of trade</t>
   </si>
   <si>
@@ -3405,25 +3380,13 @@
     <t>emporion_nominon</t>
   </si>
   <si>
-    <t>storehouse</t>
-  </si>
-  <si>
     <t>Storehouse</t>
   </si>
   <si>
-    <t>inland_site</t>
-  </si>
-  <si>
     <t>Inland site</t>
   </si>
   <si>
-    <t>inland_market</t>
-  </si>
-  <si>
     <t>Inland marker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland_market </t>
   </si>
   <si>
     <t>PME, Ch. 13</t>
@@ -3512,9 +3475,6 @@
     <t>Pliny the Elder, NH, 6.105</t>
   </si>
   <si>
-    <t>bibliography_modern_id</t>
-  </si>
-  <si>
     <t>bulow-jacobsen-1994</t>
   </si>
   <si>
@@ -4410,12 +4370,267 @@
   <si>
     <t>https://pleiades.stoa.org/places/50123</t>
   </si>
+  <si>
+    <t>next_on_route_link</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/berenike.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/meroe.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/ptolemais-theron.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/adouli.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/oreine.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/didoros-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/koloe.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/axomite-metropolis.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/alalaiou-islands.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/aualites.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/malao.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/moundou.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/mosullon.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/cape-elephas.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/aromaton-emporion.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/tabai.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/opone.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/menounthias.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/rhapta.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/leuke-kome.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/mouza.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/saue.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/diodoros-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/okelis.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/eudaimon-arabia.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kane.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/isle-of-birds.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/troullas.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/saubatha.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/suagros.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/dioskouridou-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/moskha.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/asikhonos.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/isles-of-zenobios.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/sarapis-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kalaiou-isles.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/apologou.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/pasinou-kharax.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/ommana.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/horaia.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/barbarikon.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/minnagar.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/astakapra.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/baiones-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kammoni.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/barygaza.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/ozene.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/paithana.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/tagara.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/akabarou.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/souppara.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kalliena.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/semulla.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/mandagora.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/palaipatmai.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/melizeigara.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/byzantion.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/toparon.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/erannoboas.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/sesekreienai-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/aigidion-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kaineiton-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/white-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/naoura.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/tundis.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/mouziris.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/nelkunda.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/bakare.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/balita.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/komarei.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kolkhoi.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/argalou.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/kamara.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/podouke.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/sopatma.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/palaisimoundou.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/masalia.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/ganges.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/khruse-island.html</t>
+  </si>
+  <si>
+    <t>https://navigating-the-periplus.github.io/locations/thina.html</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Designated Harbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Harbor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Harbor </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4487,6 +4702,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4645,7 +4868,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4694,6 +4917,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="133"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5148,10 +5375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5163,17 +5390,17 @@
     <col min="5" max="5" width="23.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="21.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.1640625" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="11" width="21.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20" style="3" customWidth="1"/>
+    <col min="15" max="15" width="49.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -5194,7 +5421,7 @@
         <v>911</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>4</v>
@@ -5202,18 +5429,21 @@
       <c r="J1" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
@@ -5230,32 +5460,35 @@
         <v>908</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G2" s="18">
         <v>786069</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1021</v>
+        <v>55</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>1327</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>286</v>
       </c>
@@ -5272,31 +5505,34 @@
         <v>908</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G3" s="3">
         <v>785986</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1021</v>
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1328</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>287</v>
       </c>
@@ -5313,31 +5549,34 @@
         <v>908</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G4" s="3">
         <v>805630</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>1022</v>
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1329</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>288</v>
       </c>
@@ -5354,32 +5593,35 @@
         <v>908</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G5" s="3">
         <v>39409</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>1023</v>
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1330</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>284</v>
       </c>
@@ -5396,31 +5638,34 @@
         <v>908</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G6" s="3">
         <v>39271</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
@@ -5437,31 +5682,34 @@
         <v>908</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G7" s="3">
         <v>39404</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>1279</v>
+        <v>1261</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>1025</v>
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1332</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>290</v>
       </c>
@@ -5475,25 +5723,28 @@
         <v>15.462899999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>1026</v>
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1333</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>291</v>
       </c>
@@ -5510,31 +5761,34 @@
         <v>908</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G9" s="3">
         <v>39363</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>1022</v>
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1334</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>292</v>
       </c>
@@ -5551,31 +5805,34 @@
         <v>908</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G10" s="3">
         <v>39303</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>1281</v>
+        <v>1263</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>1022</v>
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1335</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>294</v>
       </c>
@@ -5592,31 +5849,34 @@
         <v>908</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G11" s="3">
         <v>39281</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>1027</v>
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1336</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>295</v>
       </c>
@@ -5633,31 +5893,34 @@
         <v>908</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G12" s="3">
         <v>39304</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>1283</v>
+        <v>1265</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>1023</v>
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1337</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>296</v>
       </c>
@@ -5674,31 +5937,34 @@
         <v>908</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G13" s="3">
         <v>39375</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>1023</v>
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1338</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>297</v>
       </c>
@@ -5715,31 +5981,34 @@
         <v>908</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G14" s="3">
         <v>39389</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>1285</v>
+        <v>1267</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>1023</v>
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1339</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>298</v>
       </c>
@@ -5756,31 +6025,34 @@
         <v>908</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G15" s="3">
         <v>39387</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>1023</v>
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1340</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>299</v>
       </c>
@@ -5794,25 +6066,26 @@
         <v>11.940889</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>1027</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K16"/>
       <c r="L16" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>300</v>
       </c>
@@ -5826,34 +6099,37 @@
         <v>11.966666999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G17" s="3">
         <v>40030</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>1027</v>
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1341</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>301</v>
       </c>
@@ -5870,31 +6146,34 @@
         <v>908</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G18" s="3">
         <v>39293</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>1023</v>
+        <v>90</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1342</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>302</v>
       </c>
@@ -5908,25 +6187,28 @@
         <v>11.750833</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>1025</v>
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1343</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>303</v>
       </c>
@@ -5943,31 +6225,32 @@
         <v>908</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G20" s="3">
         <v>39403</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>1023</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K20"/>
       <c r="L20" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>304</v>
       </c>
@@ -5984,31 +6267,34 @@
         <v>908</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G21" s="3">
         <v>39410</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>1027</v>
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1344</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>305</v>
       </c>
@@ -6025,31 +6311,34 @@
         <v>908</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G22" s="3">
         <v>40222</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>1027</v>
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1345</v>
       </c>
       <c r="L22" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>306</v>
       </c>
@@ -6066,31 +6355,34 @@
         <v>908</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G23" s="3">
         <v>39414</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>270</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>1023</v>
+        <v>157</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1346</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>307</v>
       </c>
@@ -6104,31 +6396,32 @@
         <v>24.088263999999999</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="G24" s="3">
         <v>814698</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>1028</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="K24"/>
       <c r="L24" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>308</v>
       </c>
@@ -6145,31 +6438,34 @@
         <v>908</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G25" s="3">
         <v>39345</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>1027</v>
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1347</v>
       </c>
       <c r="L25" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>309</v>
       </c>
@@ -6186,31 +6482,34 @@
         <v>908</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G26" s="3">
         <v>39390</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>1295</v>
+        <v>1277</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>310</v>
       </c>
@@ -6224,25 +6523,26 @@
         <v>13.968610999999999</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>1022</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="K27"/>
       <c r="L27" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>311</v>
       </c>
@@ -6259,31 +6559,34 @@
         <v>908</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G28" s="3">
         <v>39423</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>1296</v>
+        <v>1278</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>1022</v>
+        <v>168</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1349</v>
       </c>
       <c r="L28" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>312</v>
       </c>
@@ -6297,25 +6600,28 @@
         <v>12.66</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>1027</v>
+        <v>165</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1350</v>
       </c>
       <c r="L29" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>313</v>
       </c>
@@ -6332,31 +6638,34 @@
         <v>908</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G30" s="3">
         <v>39279</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>1027</v>
+        <v>166</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1351</v>
       </c>
       <c r="L30" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>314</v>
       </c>
@@ -6373,32 +6682,35 @@
         <v>908</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G31" s="3">
         <v>39269</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1298</v>
+        <v>1280</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>1028</v>
+        <v>170</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1352</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>315</v>
       </c>
@@ -6412,34 +6724,37 @@
         <v>14.0253</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G32" s="3">
         <v>39355</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>1299</v>
+        <v>1281</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>1023</v>
+        <v>173</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1353</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>316</v>
       </c>
@@ -6453,25 +6768,28 @@
         <v>13.932499999999999</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>1027</v>
+        <v>175</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1354</v>
       </c>
       <c r="L33" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>317</v>
       </c>
@@ -6488,31 +6806,34 @@
         <v>908</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G34" s="3">
         <v>39436</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>1027</v>
+        <v>176</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1355</v>
       </c>
       <c r="L34" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>318</v>
       </c>
@@ -6526,25 +6847,28 @@
         <v>15.3689</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>1027</v>
+        <v>178</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1356</v>
       </c>
       <c r="L35" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>319</v>
       </c>
@@ -6558,25 +6882,28 @@
         <v>15.635278</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>1028</v>
+        <v>181</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1357</v>
       </c>
       <c r="L36" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>320</v>
       </c>
@@ -6593,31 +6920,34 @@
         <v>908</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G37" s="3">
         <v>39338</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>1301</v>
+        <v>1283</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>1027</v>
+        <v>896</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1358</v>
       </c>
       <c r="L37" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>321</v>
       </c>
@@ -6634,31 +6964,34 @@
         <v>909</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G38" s="3">
         <v>40228</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>1302</v>
+        <v>1284</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>1021</v>
+        <v>185</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1359</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>322</v>
       </c>
@@ -6675,31 +7008,34 @@
         <v>910</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G39" s="3">
         <v>39296</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>1027</v>
+        <v>187</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1360</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>323</v>
       </c>
@@ -6716,31 +7052,34 @@
         <v>908</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G40" s="3">
         <v>39441</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1304</v>
+        <v>1286</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>1027</v>
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1361</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>324</v>
       </c>
@@ -6757,31 +7096,34 @@
         <v>908</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G41" s="3">
         <v>29743</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>1305</v>
+        <v>1287</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>1027</v>
+        <v>188</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1362</v>
       </c>
       <c r="L41" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>326</v>
       </c>
@@ -6798,31 +7140,34 @@
         <v>908</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G42" s="3">
         <v>29620</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>1027</v>
+        <v>897</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1363</v>
       </c>
       <c r="L42" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>327</v>
       </c>
@@ -6839,32 +7184,35 @@
         <v>908</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G43" s="3">
         <v>912807</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>1307</v>
+        <v>1289</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>328</v>
       </c>
@@ -6881,31 +7229,34 @@
         <v>908</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G44" s="3">
         <v>912872</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>1308</v>
+        <v>1290</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>1027</v>
+        <v>233</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1365</v>
       </c>
       <c r="L44" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>329</v>
       </c>
@@ -6922,32 +7273,35 @@
         <v>908</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G45" s="3">
         <v>932474</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>1309</v>
+        <v>1291</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>1023</v>
+        <v>499</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1366</v>
       </c>
       <c r="L45" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>498</v>
       </c>
@@ -6964,28 +7318,31 @@
         <v>908</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G46" s="3">
         <v>59881</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1310</v>
+        <v>1292</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="M46" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>502</v>
       </c>
@@ -7002,32 +7359,35 @@
         <v>908</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G47" s="3">
         <v>59734</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>549</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>1023</v>
+        <v>501</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1368</v>
       </c>
       <c r="L47" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>500</v>
       </c>
@@ -7044,31 +7404,34 @@
         <v>908</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G48" s="3">
         <v>59933</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>1312</v>
+        <v>1294</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>1047</v>
+        <v>538</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1369</v>
       </c>
       <c r="L48" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>537</v>
       </c>
@@ -7085,31 +7448,34 @@
         <v>908</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G49" s="3">
         <v>49880</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>1027</v>
+        <v>541</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1370</v>
       </c>
       <c r="L49" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>540</v>
       </c>
@@ -7126,31 +7492,34 @@
         <v>910</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G50" s="3">
         <v>49889</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1314</v>
+        <v>1296</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>1027</v>
+        <v>544</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1371</v>
       </c>
       <c r="L50" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M50" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>543</v>
       </c>
@@ -7167,31 +7536,34 @@
         <v>908</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G51" s="3">
         <v>50032</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1315</v>
+        <v>1297</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>1029</v>
+        <v>898</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1372</v>
       </c>
       <c r="L51" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>635</v>
       </c>
@@ -7208,31 +7580,34 @@
         <v>908</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G52" s="3">
         <v>59737</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1316</v>
+        <v>1298</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>549</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>1023</v>
+        <v>593</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1373</v>
       </c>
       <c r="L52" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>592</v>
       </c>
@@ -7249,31 +7624,34 @@
         <v>908</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G53" s="3">
         <v>59972</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>549</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="K53" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>591</v>
       </c>
@@ -7290,31 +7668,34 @@
         <v>908</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G54" s="3">
         <v>50192</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>1023</v>
+        <v>612</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1375</v>
       </c>
       <c r="L54" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>611</v>
       </c>
@@ -7331,31 +7712,34 @@
         <v>908</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G55" s="3">
         <v>50294</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>1023</v>
+        <v>899</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1376</v>
       </c>
       <c r="L55" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>616</v>
       </c>
@@ -7369,19 +7753,22 @@
         <v>271</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>1023</v>
+        <v>618</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1377</v>
       </c>
       <c r="L56" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>617</v>
       </c>
@@ -7398,31 +7785,34 @@
         <v>908</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G57" s="3">
         <v>50282</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>1023</v>
+        <v>620</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1378</v>
       </c>
       <c r="L57" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>619</v>
       </c>
@@ -7439,32 +7829,35 @@
         <v>908</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G58" s="3">
         <v>50023</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>1023</v>
+        <v>623</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1379</v>
       </c>
       <c r="L58" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>622</v>
       </c>
@@ -7481,31 +7874,34 @@
         <v>908</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G59" s="3">
         <v>50261</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>1322</v>
+        <v>1304</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>1023</v>
+        <v>625</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1380</v>
       </c>
       <c r="L59" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>626</v>
       </c>
@@ -7522,31 +7918,34 @@
         <v>908</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G60" s="3">
         <v>50116</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>1323</v>
+        <v>1305</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>1023</v>
+        <v>629</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1381</v>
       </c>
       <c r="L60" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>628</v>
       </c>
@@ -7563,31 +7962,34 @@
         <v>908</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G61" s="3">
         <v>50196</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>1324</v>
+        <v>1306</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>1023</v>
+        <v>632</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1382</v>
       </c>
       <c r="L61" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>631</v>
       </c>
@@ -7601,25 +8003,28 @@
         <v>17.29</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>1023</v>
+        <v>636</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1383</v>
       </c>
       <c r="L62" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>634</v>
       </c>
@@ -7636,31 +8041,34 @@
         <v>908</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G63" s="3">
         <v>49929</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>1325</v>
+        <v>1307</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>1023</v>
+        <v>639</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1384</v>
       </c>
       <c r="L63" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>638</v>
       </c>
@@ -7677,31 +8085,34 @@
         <v>908</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G64" s="3">
         <v>50308</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>1326</v>
+        <v>1308</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>1023</v>
+        <v>642</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1385</v>
       </c>
       <c r="L64" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>641</v>
       </c>
@@ -7715,25 +8126,28 @@
         <v>16.066700000000001</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>1023</v>
+        <v>667</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1386</v>
       </c>
       <c r="L65" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M65" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>666</v>
       </c>
@@ -7750,31 +8164,34 @@
         <v>908</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G66" s="3">
         <v>50264</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>1023</v>
+        <v>646</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1387</v>
       </c>
       <c r="L66" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>645</v>
       </c>
@@ -7791,31 +8208,34 @@
         <v>908</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G67" s="3">
         <v>49841</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>1027</v>
+        <v>649</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1388</v>
       </c>
       <c r="L67" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>647</v>
       </c>
@@ -7832,31 +8252,34 @@
         <v>908</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G68" s="3">
         <v>50015</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>1329</v>
+        <v>1311</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>1027</v>
+        <v>651</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1389</v>
       </c>
       <c r="L68" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>650</v>
       </c>
@@ -7870,25 +8293,28 @@
         <v>14.016500000000001</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>1027</v>
+        <v>653</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1390</v>
       </c>
       <c r="L69" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>654</v>
       </c>
@@ -7905,31 +8331,34 @@
         <v>908</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G70" s="3">
         <v>50160</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>1023</v>
+        <v>900</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1391</v>
       </c>
       <c r="L70" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>655</v>
       </c>
@@ -7946,31 +8375,34 @@
         <v>908</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G71" s="3">
         <v>50312</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>1331</v>
+        <v>1313</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>1023</v>
+        <v>901</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1392</v>
       </c>
       <c r="L71" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>668</v>
       </c>
@@ -7987,31 +8419,34 @@
         <v>908</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G72" s="3">
         <v>50146</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>1023</v>
+        <v>659</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1393</v>
       </c>
       <c r="L72" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>658</v>
       </c>
@@ -8028,31 +8463,34 @@
         <v>908</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G73" s="3">
         <v>50165</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>1333</v>
+        <v>1315</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>1023</v>
+        <v>662</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1394</v>
       </c>
       <c r="L73" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>661</v>
       </c>
@@ -8069,31 +8507,34 @@
         <v>908</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G74" s="3">
         <v>49890</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>1334</v>
+        <v>1316</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>1029</v>
+        <v>904</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1395</v>
       </c>
       <c r="L74" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>903</v>
       </c>
@@ -8110,31 +8551,34 @@
         <v>908</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G75" s="3">
         <v>49892</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>1335</v>
+        <v>1317</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>1028</v>
+        <v>740</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1396</v>
       </c>
       <c r="L75" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>739</v>
       </c>
@@ -8151,31 +8595,34 @@
         <v>908</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G76" s="3">
         <v>50066</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>1336</v>
+        <v>1318</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>1028</v>
+        <v>693</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1397</v>
       </c>
       <c r="L76" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>692</v>
       </c>
@@ -8192,31 +8639,34 @@
         <v>908</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G77" s="3">
         <v>50064</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1337</v>
+        <v>1319</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>1027</v>
+        <v>700</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1398</v>
       </c>
       <c r="L77" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>699</v>
       </c>
@@ -8233,31 +8683,34 @@
         <v>908</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G78" s="3">
         <v>49871</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>1338</v>
+        <v>1320</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>1027</v>
+        <v>703</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1399</v>
       </c>
       <c r="L78" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="N78" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>702</v>
       </c>
@@ -8274,31 +8727,34 @@
         <v>908</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G79" s="3">
         <v>49939</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>1339</v>
+        <v>1321</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>1023</v>
+        <v>706</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1400</v>
       </c>
       <c r="L79" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>705</v>
       </c>
@@ -8315,31 +8771,34 @@
         <v>908</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G80" s="3">
         <v>50221</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>1340</v>
+        <v>1322</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>1023</v>
+        <v>709</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1401</v>
       </c>
       <c r="L80" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>708</v>
       </c>
@@ -8356,31 +8815,34 @@
         <v>908</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G81" s="3">
         <v>50278</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>1341</v>
+        <v>1323</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>1023</v>
+        <v>712</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1402</v>
       </c>
       <c r="L81" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>711</v>
       </c>
@@ -8397,31 +8859,34 @@
         <v>908</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G82" s="3">
         <v>50298</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>1027</v>
+        <v>715</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1403</v>
       </c>
       <c r="L82" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>714</v>
       </c>
@@ -8438,31 +8903,34 @@
         <v>908</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G83" s="3">
         <v>50123</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>1343</v>
+        <v>1325</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>1027</v>
+        <v>720</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1404</v>
       </c>
       <c r="L83" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M83" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>719</v>
       </c>
@@ -8476,25 +8944,28 @@
         <v>22.697778</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>271</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>1023</v>
+        <v>724</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1405</v>
       </c>
       <c r="L84" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="M84" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="N84" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>723</v>
       </c>
@@ -8507,20 +8978,20 @@
       <c r="I85" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>1027</v>
+      <c r="K85" t="s">
+        <v>1406</v>
       </c>
       <c r="L85" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M85" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="N85" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>730</v>
       </c>
@@ -8533,13 +9004,14 @@
       <c r="I86" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>1022</v>
-      </c>
+      <c r="K86"/>
       <c r="L86" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M86" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="N86" s="3" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8615,1257 +9087,125 @@
     <hyperlink ref="H81" r:id="rId68" xr:uid="{281D45BF-82F2-774C-80B6-7CB0D3A9D997}"/>
     <hyperlink ref="H82" r:id="rId69" xr:uid="{F6E62E60-CC62-A94A-AFF3-B11A322DCA00}"/>
     <hyperlink ref="H83" r:id="rId70" xr:uid="{FC90846E-712C-AF43-ADA6-0367B59F8DD4}"/>
+    <hyperlink ref="K2" r:id="rId71" xr:uid="{DDE37C7A-4603-F046-9AB7-769D2B2B2071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId71"/>
+  <legacyDrawing r:id="rId72"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D745CA-C23A-3446-AE82-361774E0DE7E}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>978</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1071</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1023</v>
       </c>
       <c r="C6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1075</v>
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1027</v>
       </c>
       <c r="C7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1074</v>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1026</v>
       </c>
       <c r="C8" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="D12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="D20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="D21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="D22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="D23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="D24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="D25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="D26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="D27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="D28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="D29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="D30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="D31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="D34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-      <c r="D35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="D38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="D39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="D40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="D41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="D42" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="D43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="D44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>986</v>
-      </c>
-      <c r="D45" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D46" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D47" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D48" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
-      <c r="D50" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="D51" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="D52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="D53" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D55" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="D56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="D57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="D58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="D59" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="D60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>990</v>
-      </c>
-      <c r="D61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>991</v>
-      </c>
-      <c r="D62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="D63" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>993</v>
-      </c>
-      <c r="D64" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="D65" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="D66" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="6"/>
-      <c r="D67" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="D68" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="6"/>
-      <c r="D69" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
-      <c r="D70" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="6"/>
-      <c r="D71" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="6"/>
-      <c r="D72" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="6"/>
-      <c r="D73" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="D74" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>998</v>
-      </c>
-      <c r="D75" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="D76" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="D77" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D78" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="D79" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="D80" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-      <c r="D81" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="6"/>
-      <c r="D82" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="6"/>
-      <c r="D83" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="6"/>
-      <c r="D84" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="6"/>
-      <c r="D85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="6"/>
-      <c r="D86" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D87" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D88" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D89" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D90" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D91" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D92" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D93" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D94" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D95" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D96" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D97" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D98" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D99" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="D100" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="6"/>
-      <c r="D101" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
-      <c r="D102" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D103" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
-      <c r="D104" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="6"/>
-      <c r="D105" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B106" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D106" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B107" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D107" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B108" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D108" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B109" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D109" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B110" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D110" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D111" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
         <v>1164</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D112" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D113" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D114" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D115" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D116" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B117" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D117" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D118" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D119" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D120" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D121" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="D122" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
-      <c r="D123" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D124" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
-      <c r="D125" t="s">
-        <v>730</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10010,7 +9350,7 @@
         <v>298</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -10018,7 +9358,7 @@
         <v>298</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -10034,7 +9374,7 @@
         <v>300</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -10042,7 +9382,7 @@
         <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -10081,7 +9421,7 @@
         <v>306</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -10089,7 +9429,7 @@
         <v>306</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10492,1201 +9832,932 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90B0967-91B6-5244-A1ED-02DE9E5F5939}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>893</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>893</v>
+        <v>1008</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>304</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
+        <v>550</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D49" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D50" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>540</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D51" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D53" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D54" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D55" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>611</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D56" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D57" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D59" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D60" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D61" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D62" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D63" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>638</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D64" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>641</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D65" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="D66" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D67" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="D68" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D69" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D70" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D71" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>655</v>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D72" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D73" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D74" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>661</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D75" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="D76" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="D77" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D78" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D79" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D80" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D81" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D82" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D84" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>719</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>723</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D86" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>732</v>
       </c>
     </row>
@@ -11696,215 +10767,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4016EFC8-B1AC-B247-B3DF-58EBC4FDB5E8}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D745CA-C23A-3446-AE82-361774E0DE7E}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
@@ -14231,12 +13093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E536"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14248,20 +13110,20 @@
     <col min="5" max="5" width="69.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>893</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -20825,13 +19687,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA1977-88D4-5C4E-9285-2D1EDA85727A}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20841,7 +19701,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1007</v>
@@ -20852,7 +19712,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -20860,7 +19720,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -20868,7 +19728,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="289" x14ac:dyDescent="0.2">
@@ -20876,7 +19736,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="204" x14ac:dyDescent="0.2">
@@ -20884,7 +19744,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -20892,7 +19752,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -20900,7 +19760,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -20908,7 +19768,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -20916,7 +19776,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -20924,23 +19784,23 @@
         <v>74</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -20948,7 +19808,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -20956,7 +19816,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -20964,7 +19824,7 @@
         <v>160</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="238" x14ac:dyDescent="0.2">
@@ -20972,15 +19832,15 @@
         <v>161</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -20988,7 +19848,7 @@
         <v>162</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -20996,15 +19856,15 @@
         <v>163</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -21012,7 +19872,7 @@
         <v>164</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -21020,7 +19880,7 @@
         <v>169</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -21028,7 +19888,7 @@
         <v>172</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -21036,7 +19896,7 @@
         <v>179</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="272" x14ac:dyDescent="0.2">
@@ -21044,15 +19904,15 @@
         <v>180</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -21060,7 +19920,7 @@
         <v>184</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -21068,7 +19928,7 @@
         <v>186</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -21076,7 +19936,7 @@
         <v>189</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -21084,7 +19944,7 @@
         <v>190</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -21092,7 +19952,7 @@
         <v>506</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -21100,23 +19960,23 @@
         <v>507</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -21124,7 +19984,7 @@
         <v>547</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -21132,15 +19992,15 @@
         <v>546</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -21148,7 +20008,7 @@
         <v>595</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -21156,7 +20016,7 @@
         <v>614</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -21164,7 +20024,7 @@
         <v>664</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -21172,23 +20032,23 @@
         <v>665</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="221" x14ac:dyDescent="0.2">
@@ -21196,7 +20056,7 @@
         <v>671</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -21204,7 +20064,7 @@
         <v>691</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -21212,7 +20072,7 @@
         <v>698</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -21220,7 +20080,7 @@
         <v>704</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -21228,7 +20088,7 @@
         <v>718</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -21236,7 +20096,7 @@
         <v>722</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -21244,7 +20104,7 @@
         <v>729</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -21252,13 +20112,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156BB2A0-2BCF-B14E-941C-77561FA6A389}">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21268,7 +20126,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>954</v>
@@ -21292,7 +20150,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -21300,7 +20158,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21423,7 +20281,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21431,7 +20289,7 @@
         <v>308</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -21529,7 +20387,7 @@
         <v>328</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21537,7 +20395,7 @@
         <v>328</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -21550,7 +20408,7 @@
         <v>498</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21558,7 +20416,7 @@
         <v>498</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21566,7 +20424,7 @@
         <v>498</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -21624,7 +20482,7 @@
         <v>592</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21733,7 +20591,7 @@
         <v>654</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21757,7 +20615,7 @@
         <v>668</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21765,7 +20623,7 @@
         <v>668</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21781,7 +20639,7 @@
         <v>661</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21789,7 +20647,7 @@
         <v>661</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -21875,6 +20733,1771 @@
       <c r="A95" s="3" t="s">
         <v>730</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="D20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="D24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="D25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="D26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="D28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="D29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="D30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="D31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="D34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="D39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="D41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="D42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B45" t="s">
+        <v>986</v>
+      </c>
+      <c r="D45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="D50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="D51" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="D52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="D53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="D57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="D58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
+      <c r="D59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="6"/>
+      <c r="D60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>990</v>
+      </c>
+      <c r="D61" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>991</v>
+      </c>
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>993</v>
+      </c>
+      <c r="D64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="D65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="D66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="6"/>
+      <c r="D67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="D68" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+      <c r="D69" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="D70" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="6"/>
+      <c r="D71" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="6"/>
+      <c r="D72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="6"/>
+      <c r="D73" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D74" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>998</v>
+      </c>
+      <c r="D75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="6"/>
+      <c r="D76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="D77" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="D79" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="6"/>
+      <c r="D80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="D81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="6"/>
+      <c r="D82" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="6"/>
+      <c r="D83" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="6"/>
+      <c r="D84" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="6"/>
+      <c r="D85" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="6"/>
+      <c r="D86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D87" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D90" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D92" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D94" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D95" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D96" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D97" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D99" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="D100" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="6"/>
+      <c r="D101" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="6"/>
+      <c r="D102" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="6"/>
+      <c r="D104" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="6"/>
+      <c r="D105" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D106" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D107" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D108" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D109" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D110" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D112" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D113" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D114" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D115" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D116" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D117" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D118" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D119" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D120" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D121" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="D122" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="6"/>
+      <c r="D123" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D124" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="6"/>
+      <c r="D125" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3151A2BD-B523-7547-9145-67433828FDA1}">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
